--- a/src/test/java/resources/musteriverileri.xlsx
+++ b/src/test/java/resources/musteriverileri.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>email</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>et85608487</t>
+  </si>
+  <si>
+    <t>nihil74535113</t>
+  </si>
+  <si>
+    <t>sed60227125</t>
   </si>
 </sst>
 </file>
@@ -400,7 +406,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
